--- a/SECTOR 2016 - G.Tool/demo/demo1/demo.xlsx
+++ b/SECTOR 2016 - G.Tool/demo/demo1/demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\demo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben.sapiro\Projects\presentations\SECTOR 2016 - G.Tool\demo\demo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Ref</t>
   </si>
@@ -61,6 +61,51 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>An agent program could copy itself repeatedly into human stock</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Limited</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Write control code the prevents agents from copying themselves</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Zion may find a way to destroy the Matrix from the outside</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Find Zion and destroy it (again)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Fanboys might make unlicensed content inspired by the matrix</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>Lawyers!!!</t>
   </si>
 </sst>
 </file>
@@ -439,22 +484,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="29.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -480,7 +524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -501,6 +545,75 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
